--- a/output/fit_clients/fit_round_367.xlsx
+++ b/output/fit_clients/fit_round_367.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2398338832.758232</v>
+        <v>2135100322.732533</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1091892344349333</v>
+        <v>0.0938485837619716</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03932110162423175</v>
+        <v>0.03135346967006692</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1199169465.594978</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2172262605.732128</v>
+        <v>2501243183.625595</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1369129122453162</v>
+        <v>0.1416146006213975</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0361911872708332</v>
+        <v>0.03767593489955864</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1086131369.619773</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3773097748.349722</v>
+        <v>4499546314.415827</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1506809065453615</v>
+        <v>0.137791617915899</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03295424601924314</v>
+        <v>0.02339378109614402</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>133</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1886548872.285815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3371004538.479977</v>
+        <v>3736532199.624207</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09049032618899251</v>
+        <v>0.08162590988815348</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04654406664762102</v>
+        <v>0.04379069258874371</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>136</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1685502314.588332</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1760307881.544417</v>
+        <v>2009371842.714598</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1114679624383305</v>
+        <v>0.1401336130185132</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05242768547804407</v>
+        <v>0.05451721869859692</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>69</v>
-      </c>
-      <c r="J6" t="n">
-        <v>880153996.315967</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2235345575.222802</v>
+        <v>2676582215.608593</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1002510115586241</v>
+        <v>0.07701578162535105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03095114252331145</v>
+        <v>0.03550013989894672</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>114</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1117672826.107755</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3320642618.417742</v>
+        <v>3358823718.105127</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1499521315785213</v>
+        <v>0.1799751846164689</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02524757899460574</v>
+        <v>0.0285676058534301</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>117</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1660321399.51168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1866215011.758518</v>
+        <v>1904408341.349396</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1433814689914897</v>
+        <v>0.1959567596209349</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03353742771291111</v>
+        <v>0.02894916899463882</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>933107551.0546829</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5502288023.195987</v>
+        <v>5543960161.670223</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1629349195509467</v>
+        <v>0.1946202291473853</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03360311441968255</v>
+        <v>0.05459428103986966</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>154</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2751144149.84567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4087081866.868012</v>
+        <v>3572443759.60713</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1713423371505997</v>
+        <v>0.1640548705856883</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03215299520286206</v>
+        <v>0.04657500680778572</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>152</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2043540952.234688</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2689119752.382678</v>
+        <v>2538752403.896406</v>
       </c>
       <c r="F12" t="n">
-        <v>0.156500901465064</v>
+        <v>0.1399641134214385</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03544816679172368</v>
+        <v>0.04537486343286365</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>126</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1344559865.729815</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4184547956.319046</v>
+        <v>4021981710.553204</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08695075221455278</v>
+        <v>0.08703858519089676</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02080070828471672</v>
+        <v>0.02823564297927617</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>123</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2092274023.722413</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3745673478.749932</v>
+        <v>3106597539.790565</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1341885019439701</v>
+        <v>0.1148619101518671</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03296412205954213</v>
+        <v>0.03173611580807689</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>119</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1872836719.826637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1301048145.581038</v>
+        <v>1655582908.791713</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08491009224723706</v>
+        <v>0.06760861486234676</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03891362871657417</v>
+        <v>0.04866773372043985</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>650524113.203186</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2409544177.52471</v>
+        <v>2388012220.323392</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0889996221163387</v>
+        <v>0.09898673296477058</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0402469831732921</v>
+        <v>0.04937727799823188</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>73</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1204772127.673006</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4157891425.577281</v>
+        <v>5290401515.37547</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1673778112591835</v>
+        <v>0.1523068113787564</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04560875882257768</v>
+        <v>0.04182389593075183</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>107</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2078945739.603596</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3038212894.179554</v>
+        <v>2688787647.798848</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1390596627316823</v>
+        <v>0.1559752025720506</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02997411102030025</v>
+        <v>0.03299041900383421</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>120</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1519106474.5959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1053814289.348526</v>
+        <v>941586306.0731688</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1272493926706652</v>
+        <v>0.1389298137668571</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02189146556684248</v>
+        <v>0.02528189586306214</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>526907187.0101764</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2360191708.883153</v>
+        <v>1951994294.402482</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1073456645964707</v>
+        <v>0.1068230130710098</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02490081092287822</v>
+        <v>0.02954645635958819</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>47</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1180095842.4383</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1914987870.471903</v>
+        <v>1880604883.938525</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06777241154542553</v>
+        <v>0.0865461678396458</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04172740214826036</v>
+        <v>0.03656049315031795</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>957493979.3403201</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2740208691.964845</v>
+        <v>3845470239.48442</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1349997535493961</v>
+        <v>0.09507926042116409</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05030461655766509</v>
+        <v>0.03967379384239332</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>101</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1370104423.082632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1285116367.275311</v>
+        <v>952664167.3075141</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1450191464427762</v>
+        <v>0.1446165990873096</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0416027069725284</v>
+        <v>0.04031666453292716</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>642558205.7841246</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4148617400.718644</v>
+        <v>3627284960.28333</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1093141240816064</v>
+        <v>0.1462544113575966</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02925738277737799</v>
+        <v>0.03250928530709398</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>107</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2074308658.355195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1449229846.087517</v>
+        <v>1284668000.530513</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1026883423251445</v>
+        <v>0.08170640076281181</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0252064639698254</v>
+        <v>0.03050877391837125</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>724614883.687167</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1174257405.284866</v>
+        <v>972384946.4226725</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09611385621598971</v>
+        <v>0.1111360190105276</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02429944297216539</v>
+        <v>0.02451000438202482</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>587128717.3580344</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3954236040.628573</v>
+        <v>3051037796.082975</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1175176500623843</v>
+        <v>0.1212066305128386</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02195902516441024</v>
+        <v>0.02540057888788016</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1977118032.728688</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3707709852.681299</v>
+        <v>3288703103.244864</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1404619401752973</v>
+        <v>0.1340731901632493</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0417235906983557</v>
+        <v>0.03646913845968176</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>119</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1853854998.995721</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5711324375.562942</v>
+        <v>3640598422.265807</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1043946517429129</v>
+        <v>0.1019098993435142</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03492462452056071</v>
+        <v>0.04451756874580803</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>162</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2855662086.069962</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2117138316.854012</v>
+        <v>1919978941.751697</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1065363254608692</v>
+        <v>0.09617142228008647</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0395774161553943</v>
+        <v>0.03736340144323073</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1058569209.212728</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1499134727.397689</v>
+        <v>1339920893.770632</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06931769006004149</v>
+        <v>0.09640575966754358</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03375512931072951</v>
+        <v>0.04054494059201542</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>749567244.7521629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1786187959.460292</v>
+        <v>1789754861.060398</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1034357482600135</v>
+        <v>0.09413172968760357</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03757383408495548</v>
+        <v>0.03858392445226658</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>893094107.3453622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2445041557.319669</v>
+        <v>1926279942.819366</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1812789754958863</v>
+        <v>0.2037125566225</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04600146420901851</v>
+        <v>0.05789836044074238</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>111</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1222520821.55138</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1313777258.345747</v>
+        <v>1299606125.28022</v>
       </c>
       <c r="F34" t="n">
-        <v>0.103021754833102</v>
+        <v>0.09189371361115621</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02790331009402627</v>
+        <v>0.01984735393781805</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>656888615.6245664</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>896720261.4812449</v>
+        <v>1084972623.264189</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09599381648877454</v>
+        <v>0.1081596081449068</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03592737725236132</v>
+        <v>0.03128066230770247</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>448360171.9644607</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2609406518.980731</v>
+        <v>1986345260.68141</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1487711962145237</v>
+        <v>0.1543602549580737</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01785001454565617</v>
+        <v>0.01792708828781977</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1304703272.711869</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1868177468.253671</v>
+        <v>1806891622.080158</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07302451879995318</v>
+        <v>0.102931069698537</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02772764131287937</v>
+        <v>0.04095527641749908</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>97</v>
-      </c>
-      <c r="J37" t="n">
-        <v>934088743.2722311</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1758695094.171403</v>
+        <v>1513639813.319239</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08891427012504943</v>
+        <v>0.07627495201955926</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0309888283939254</v>
+        <v>0.02440956541196985</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>879347559.8152024</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1535654522.776739</v>
+        <v>1801930600.578925</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1280370799280944</v>
+        <v>0.1370948668538942</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03108242031430694</v>
+        <v>0.02593671203428818</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>767827326.416268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1434650482.414368</v>
+        <v>1544030247.18045</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1334890651650555</v>
+        <v>0.1184679825747793</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05672049857921627</v>
+        <v>0.0461033746658475</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>717325223.7593712</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2939434227.963162</v>
+        <v>2123109391.224749</v>
       </c>
       <c r="F41" t="n">
-        <v>0.158543849669672</v>
+        <v>0.1197233582311586</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04126505278434796</v>
+        <v>0.04715229288844541</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>93</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1469717096.218644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4024032625.149637</v>
+        <v>3089599269.34026</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0843991406287197</v>
+        <v>0.08710413628222716</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03667640000642133</v>
+        <v>0.04451746625530277</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>124</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2012016343.536021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2619032647.983752</v>
+        <v>2038872260.212277</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1628218945066272</v>
+        <v>0.1252899364624494</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01673376187523835</v>
+        <v>0.01887135034360358</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>130</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1309516360.701343</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1926382182.935637</v>
+        <v>2321810683.856825</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0978580784093085</v>
+        <v>0.06345948734308741</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02319826396205519</v>
+        <v>0.02678293724270171</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>963191183.134841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1619762632.794043</v>
+        <v>1847883818.974918</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1669162591699119</v>
+        <v>0.195185002813584</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04582935205337125</v>
+        <v>0.04423041844774907</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>809881268.9254174</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5457778096.049211</v>
+        <v>3963819133.305145</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1204858739513825</v>
+        <v>0.1140704836378962</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04394346182612931</v>
+        <v>0.04361866224742596</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>131</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2728889101.071249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3636784826.033077</v>
+        <v>3572720467.931128</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1235586922321951</v>
+        <v>0.1999812792759063</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04965797194172494</v>
+        <v>0.05593193526150626</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>98</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1818392391.560543</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4689973940.396523</v>
+        <v>3859809077.170756</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08977088041594827</v>
+        <v>0.08962382192791822</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02648165596009067</v>
+        <v>0.03605656590243787</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>120</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2344986964.463573</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1816183560.693749</v>
+        <v>1740505507.852546</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1773358849388897</v>
+        <v>0.1697766212527809</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04110474343239102</v>
+        <v>0.04017584504514071</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>908091763.2153028</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2836574680.090742</v>
+        <v>2896703751.3478</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1268190915949982</v>
+        <v>0.1556593812986228</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05297035040048755</v>
+        <v>0.04139144145002435</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>125</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1418287411.505485</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1326789885.669548</v>
+        <v>1363173826.945621</v>
       </c>
       <c r="F51" t="n">
-        <v>0.142345295685875</v>
+        <v>0.1484968902876048</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04050543372027567</v>
+        <v>0.03635701070063414</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>663394973.84171</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4289261756.287887</v>
+        <v>3823953218.616446</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1150911089077101</v>
+        <v>0.1078095984951656</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04302809278581073</v>
+        <v>0.05292123328283323</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>151</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2144630917.607216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2885995834.645555</v>
+        <v>3552395786.979412</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1261683517084807</v>
+        <v>0.1973551833065372</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02898972304141606</v>
+        <v>0.03538579605304639</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>104</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1442997957.603097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4770862382.543374</v>
+        <v>3432773647.081746</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1283829546941395</v>
+        <v>0.1028511356038342</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05005261427022488</v>
+        <v>0.04536033738062532</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>119</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2385431315.898659</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4312615962.736908</v>
+        <v>4550234665.074617</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1350685129765808</v>
+        <v>0.1672332011739558</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01960293577168451</v>
+        <v>0.02345771580241324</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>101</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2156307970.06562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1684401155.28425</v>
+        <v>1377318431.984452</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1510977839041685</v>
+        <v>0.1018103065672921</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04095066299194366</v>
+        <v>0.04593043064902701</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>842200592.5853134</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2909136206.084268</v>
+        <v>3028409853.560054</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1589214953141192</v>
+        <v>0.1303255265371345</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02693679308164176</v>
+        <v>0.01812883948917753</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>116</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1454568099.827308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1314371895.934741</v>
+        <v>1385672363.305631</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1361520753080342</v>
+        <v>0.1385912380647411</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03081939974454713</v>
+        <v>0.02435508591187204</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>657185996.0489526</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5082101636.242373</v>
+        <v>3289668703.80517</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1270431212898802</v>
+        <v>0.09771666477206339</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04905839236926429</v>
+        <v>0.03957959642325631</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>100</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2541050741.886291</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3368380102.984283</v>
+        <v>3119137734.207509</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2060121881788755</v>
+        <v>0.1603799849718955</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02671994674311846</v>
+        <v>0.02957563173975878</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>114</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1684190160.492643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3287185554.94513</v>
+        <v>2699518191.521516</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1397496684184528</v>
+        <v>0.1179091142729253</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02627750604407214</v>
+        <v>0.032515619902188</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>126</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1643592730.868225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1464086933.196612</v>
+        <v>2047259244.172507</v>
       </c>
       <c r="F62" t="n">
-        <v>0.117426964937996</v>
+        <v>0.1458706851410176</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03487964591407962</v>
+        <v>0.03413486591092133</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>732043444.2970212</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5088039362.112613</v>
+        <v>5608321683.579398</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0862696190699492</v>
+        <v>0.07596214395558387</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03225804715514334</v>
+        <v>0.02931490057172532</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>105</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2544019694.929637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5488907361.663662</v>
+        <v>4169642135.169504</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1663824579321535</v>
+        <v>0.1346881598443679</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03278864221153461</v>
+        <v>0.03039416394135123</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>114</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2744453821.426779</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4475923014.382981</v>
+        <v>5983151693.926148</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1627620358842764</v>
+        <v>0.1595838852389172</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02627493318900831</v>
+        <v>0.01990213011266066</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>131</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2237961497.393878</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5555061294.759899</v>
+        <v>3764337598.810073</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1017593804045059</v>
+        <v>0.1052434224544624</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03567998816092957</v>
+        <v>0.04452542358362023</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>107</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2777530704.260653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2898234745.079155</v>
+        <v>3091122525.898954</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1014909473854386</v>
+        <v>0.07233441531486839</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03168656494262512</v>
+        <v>0.03524127862201781</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>117</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1449117399.462756</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4236120382.921143</v>
+        <v>5773185425.349003</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1006169235572509</v>
+        <v>0.1059797383891909</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03297520066105005</v>
+        <v>0.04139364230376055</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>120</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2118060201.571811</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2136170747.066114</v>
+        <v>2316296152.268679</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1107388324489065</v>
+        <v>0.1774150044856506</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04995256777078324</v>
+        <v>0.04532871982434142</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1068085396.093101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3174281026.623525</v>
+        <v>2440631811.38696</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09714798506729194</v>
+        <v>0.08310652999047137</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0444938325049759</v>
+        <v>0.03552682387252019</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>105</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1587140501.664438</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5064983883.489812</v>
+        <v>4302571642.427279</v>
       </c>
       <c r="F71" t="n">
-        <v>0.18471627753575</v>
+        <v>0.1220360947737793</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02515658773794061</v>
+        <v>0.02410140110503153</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>134</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2532492052.312574</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1910524309.841395</v>
+        <v>2177804777.519081</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07269709842928887</v>
+        <v>0.08188863111790644</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03720367821102466</v>
+        <v>0.0427430084302244</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>955262115.7038944</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2352638987.08177</v>
+        <v>3264419704.83818</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09161791930566163</v>
+        <v>0.08972381240277534</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05199767033643833</v>
+        <v>0.04839675343374743</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>140</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1176319548.815308</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2998089590.148503</v>
+        <v>3789921271.483695</v>
       </c>
       <c r="F74" t="n">
-        <v>0.115429772232549</v>
+        <v>0.1579909412265282</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03174793057856063</v>
+        <v>0.02224299479271477</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>125</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1499044860.66141</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1653905624.582758</v>
+        <v>2207875212.982254</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1333217873258298</v>
+        <v>0.155838484894765</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03639207201103033</v>
+        <v>0.0371545347406262</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>826952808.8817226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4355888734.403496</v>
+        <v>3418948440.639551</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1021929563200508</v>
+        <v>0.1168812387284214</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02911199366867214</v>
+        <v>0.02797718767743435</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2177944366.824267</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1450500115.893389</v>
+        <v>1701203893.472326</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1692666512199173</v>
+        <v>0.1444792454406043</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02663070071516967</v>
+        <v>0.02337851721649525</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>725250038.3046578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3120464422.094293</v>
+        <v>3899194131.875516</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08615020161120335</v>
+        <v>0.1215670508567773</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0440724222888071</v>
+        <v>0.05173410380029662</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>128</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1560232239.746347</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1323959651.958303</v>
+        <v>1503265879.167736</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1308519576909343</v>
+        <v>0.1493276858989795</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02472950275224398</v>
+        <v>0.03853782890445814</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>661979829.3743279</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4754192079.452166</v>
+        <v>4061678719.601401</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1107400473086341</v>
+        <v>0.09958053109471936</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02711080682726524</v>
+        <v>0.029608201731044</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>77</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2377096076.705269</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4145696057.994634</v>
+        <v>5071121193.928207</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09490849403167924</v>
+        <v>0.1105808325245125</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02618682137825298</v>
+        <v>0.02741255229133096</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>86</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2072847997.634599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4007237942.534874</v>
+        <v>5686140710.72186</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1511578669664011</v>
+        <v>0.1535811152265138</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02492617511454942</v>
+        <v>0.0282395784578806</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>128</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2003619010.627715</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1975143619.873367</v>
+        <v>2395190152.144227</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0961875169486749</v>
+        <v>0.1246421857560404</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04039568183283424</v>
+        <v>0.03498094420313523</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>987571792.1664358</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1844169203.519537</v>
+        <v>2067992813.461633</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1129391464321364</v>
+        <v>0.09324721150193341</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03778411254761106</v>
+        <v>0.03169651199495278</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>922084629.5718287</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2785128458.25363</v>
+        <v>2762261916.426826</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1829751495500168</v>
+        <v>0.1662759612678789</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05142354918773215</v>
+        <v>0.04103134560205623</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>137</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1392564265.554959</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2375267154.982228</v>
+        <v>2777953921.067934</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1105574178806681</v>
+        <v>0.1562617234855851</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01860757570516917</v>
+        <v>0.01721648435463199</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>49</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1187633657.317817</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1028377107.298111</v>
+        <v>981955702.403915</v>
       </c>
       <c r="F87" t="n">
-        <v>0.123531380750814</v>
+        <v>0.1196833922991346</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03960300926340461</v>
+        <v>0.0281150707337808</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>514188565.2554287</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3303633609.308692</v>
+        <v>3507571676.278685</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1355226704277631</v>
+        <v>0.1456056957917717</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02491486022591877</v>
+        <v>0.02915558654320672</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>146</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1651816865.131254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2640497732.768558</v>
+        <v>2729137167.695142</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1147732725568226</v>
+        <v>0.1076776629212779</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03778579812279687</v>
+        <v>0.04052035448785712</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>123</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1320248930.850648</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1843599809.399805</v>
+        <v>2017274225.16439</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1123554652321677</v>
+        <v>0.1376798844380487</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0442150696882986</v>
+        <v>0.03779183750204865</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>921799946.3123069</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1806178618.317584</v>
+        <v>1414303799.795562</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1701684463093499</v>
+        <v>0.1787172489101895</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04763954784446569</v>
+        <v>0.0374569908786653</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>903089307.2569257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2837485534.68051</v>
+        <v>1836424759.493595</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07933283642107915</v>
+        <v>0.08233924605289532</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03068326178405665</v>
+        <v>0.03120234363297941</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>102</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1418742776.788651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3452146173.354429</v>
+        <v>3385492688.097282</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08612205776995539</v>
+        <v>0.09217726446789158</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04037751071321279</v>
+        <v>0.04692897531935967</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1726073122.739661</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1530739344.077364</v>
+        <v>2411149831.784717</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1181269297011149</v>
+        <v>0.1387523402061984</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03589277527392638</v>
+        <v>0.0324351743312404</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>765369609.3053105</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2435039666.249008</v>
+        <v>2588481513.681742</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08381434143981027</v>
+        <v>0.09893882970933082</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05313212898641589</v>
+        <v>0.04292975047539513</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>91</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1217519873.985664</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1937075001.477688</v>
+        <v>2127530326.739918</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1242181192549957</v>
+        <v>0.1375258667692439</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0398455980899849</v>
+        <v>0.04524127337400431</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>968537494.4358494</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4212270470.685922</v>
+        <v>4550755925.71469</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1207763582368275</v>
+        <v>0.1265832215323207</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02376160120971818</v>
+        <v>0.02051727529671032</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>118</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2106135308.80491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3605539730.742141</v>
+        <v>3843547033.248202</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1297031111762607</v>
+        <v>0.1177427110523508</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01976933939005362</v>
+        <v>0.02075283089675215</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>97</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1802769891.145061</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3203353159.002451</v>
+        <v>3281885815.665919</v>
       </c>
       <c r="F99" t="n">
-        <v>0.140930797908432</v>
+        <v>0.09535872488379156</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03259368918317146</v>
+        <v>0.02512178704262178</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>115</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1601676580.242572</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4394627791.605732</v>
+        <v>4441706649.59961</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1693003147636866</v>
+        <v>0.1726081068661066</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02086648165971537</v>
+        <v>0.02531728664905884</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>113</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2197313997.997687</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2921849986.844635</v>
+        <v>3385375597.787523</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1394212083505177</v>
+        <v>0.1452432784747002</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04574298167902925</v>
+        <v>0.05763895359010462</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>149</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1460925072.136785</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_367.xlsx
+++ b/output/fit_clients/fit_round_367.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2135100322.732533</v>
+        <v>2344046163.210058</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0938485837619716</v>
+        <v>0.1109370946712122</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03135346967006692</v>
+        <v>0.03421652448501294</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2501243183.625595</v>
+        <v>1785882399.11165</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1416146006213975</v>
+        <v>0.1548648284956346</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03767593489955864</v>
+        <v>0.03965087644400035</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4499546314.415827</v>
+        <v>3498361085.01874</v>
       </c>
       <c r="F4" t="n">
-        <v>0.137791617915899</v>
+        <v>0.1179159286279844</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02339378109614402</v>
+        <v>0.0373750840217897</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3736532199.624207</v>
+        <v>3466201853.642854</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08162590988815348</v>
+        <v>0.08130637850632187</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04379069258874371</v>
+        <v>0.04489396925722047</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2009371842.714598</v>
+        <v>2027154493.321612</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1401336130185132</v>
+        <v>0.1086419421142725</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05451721869859692</v>
+        <v>0.03622324080615225</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2676582215.608593</v>
+        <v>2907617888.191331</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07701578162535105</v>
+        <v>0.09962597345303996</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03550013989894672</v>
+        <v>0.03448561151273889</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3358823718.105127</v>
+        <v>3268222503.864214</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1799751846164689</v>
+        <v>0.2148710914555336</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0285676058534301</v>
+        <v>0.02565128781326526</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1904408341.349396</v>
+        <v>2263234017.146663</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1959567596209349</v>
+        <v>0.1283462745834428</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02894916899463882</v>
+        <v>0.03250399408341973</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5543960161.670223</v>
+        <v>4262664530.276011</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1946202291473853</v>
+        <v>0.1868300288521066</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05459428103986966</v>
+        <v>0.04397003961625343</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3572443759.60713</v>
+        <v>3939619492.60256</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1640548705856883</v>
+        <v>0.1529539090531428</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04657500680778572</v>
+        <v>0.04172508457437584</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2538752403.896406</v>
+        <v>2558451633.859356</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1399641134214385</v>
+        <v>0.1773598470776003</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04537486343286365</v>
+        <v>0.03657496790842297</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4021981710.553204</v>
+        <v>4260875957.260421</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08703858519089676</v>
+        <v>0.07728569142225948</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02823564297927617</v>
+        <v>0.03028879990146579</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3106597539.790565</v>
+        <v>2990764962.913013</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1148619101518671</v>
+        <v>0.1555317296562956</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03173611580807689</v>
+        <v>0.03965480328757921</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1655582908.791713</v>
+        <v>1729931879.852177</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06760861486234676</v>
+        <v>0.06842687098977346</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04866773372043985</v>
+        <v>0.03456655666096939</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2388012220.323392</v>
+        <v>2234307960.7077</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09898673296477058</v>
+        <v>0.09523559240649912</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04937727799823188</v>
+        <v>0.0396927097420592</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5290401515.37547</v>
+        <v>5114743470.313579</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1523068113787564</v>
+        <v>0.1273992274548023</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04182389593075183</v>
+        <v>0.0383581926449296</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2688787647.798848</v>
+        <v>3326537031.504645</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1559752025720506</v>
+        <v>0.1594697423216973</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03299041900383421</v>
+        <v>0.0244335872458557</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>941586306.0731688</v>
+        <v>1225250525.445506</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1389298137668571</v>
+        <v>0.1893068262174926</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02528189586306214</v>
+        <v>0.01906041465888865</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1951994294.402482</v>
+        <v>1794022507.656417</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1068230130710098</v>
+        <v>0.1462377196633643</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02954645635958819</v>
+        <v>0.02867719748504502</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1880604883.938525</v>
+        <v>2634195175.918</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0865461678396458</v>
+        <v>0.06745365520964405</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03656049315031795</v>
+        <v>0.03652830515256567</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3845470239.48442</v>
+        <v>3551895868.379415</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09507926042116409</v>
+        <v>0.1408134913912757</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03967379384239332</v>
+        <v>0.05020319283148114</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>952664167.3075141</v>
+        <v>1079987790.511329</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1446165990873096</v>
+        <v>0.1725610973925001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04031666453292716</v>
+        <v>0.04324531831565036</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3627284960.28333</v>
+        <v>2798488613.269957</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1462544113575966</v>
+        <v>0.09467434182118228</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03250928530709398</v>
+        <v>0.0375700203057884</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1284668000.530513</v>
+        <v>899361993.3073173</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08170640076281181</v>
+        <v>0.08125032752539348</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03050877391837125</v>
+        <v>0.01881097471113405</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>972384946.4226725</v>
+        <v>898003403.3304659</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1111360190105276</v>
+        <v>0.1224490335400596</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02451000438202482</v>
+        <v>0.0283764115814798</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3051037796.082975</v>
+        <v>4042855777.064317</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1212066305128386</v>
+        <v>0.1317544907924055</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02540057888788016</v>
+        <v>0.02171393615272047</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3288703103.244864</v>
+        <v>2746973465.669672</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1340731901632493</v>
+        <v>0.1299152597841954</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03646913845968176</v>
+        <v>0.04032133587782515</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3640598422.265807</v>
+        <v>5932487704.108374</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1019098993435142</v>
+        <v>0.1234345225428196</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04451756874580803</v>
+        <v>0.033063326802131</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1919978941.751697</v>
+        <v>1893078572.781248</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09617142228008647</v>
+        <v>0.09624135067928649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03736340144323073</v>
+        <v>0.03282307545018705</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1339920893.770632</v>
+        <v>1078893426.736788</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09640575966754358</v>
+        <v>0.08873627722283263</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04054494059201542</v>
+        <v>0.04602282837107243</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1789754861.060398</v>
+        <v>1361484869.037437</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09413172968760357</v>
+        <v>0.1109216628840624</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03858392445226658</v>
+        <v>0.02805431657239057</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1926279942.819366</v>
+        <v>2106027865.306655</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2037125566225</v>
+        <v>0.1529028901124685</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05789836044074238</v>
+        <v>0.04654569572211373</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1299606125.28022</v>
+        <v>1161512017.82156</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09189371361115621</v>
+        <v>0.1092743171585703</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01984735393781805</v>
+        <v>0.02280795959702496</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1084972623.264189</v>
+        <v>1113387699.513653</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1081596081449068</v>
+        <v>0.0737135353708715</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03128066230770247</v>
+        <v>0.0356764670351955</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1986345260.68141</v>
+        <v>2669820918.986453</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1543602549580737</v>
+        <v>0.1621052491201416</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01792708828781977</v>
+        <v>0.02252843267525423</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1806891622.080158</v>
+        <v>2085037882.565035</v>
       </c>
       <c r="F37" t="n">
-        <v>0.102931069698537</v>
+        <v>0.07642928553871377</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04095527641749908</v>
+        <v>0.03001768740647459</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1513639813.319239</v>
+        <v>2016660310.499975</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07627495201955926</v>
+        <v>0.1216980881557925</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02440956541196985</v>
+        <v>0.02469284984616607</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1801930600.578925</v>
+        <v>1915091607.050702</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1370948668538942</v>
+        <v>0.1684711507570701</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02593671203428818</v>
+        <v>0.02960460499292384</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1544030247.18045</v>
+        <v>1328835714.290363</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1184679825747793</v>
+        <v>0.1213702916976691</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0461033746658475</v>
+        <v>0.05227998733080964</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2123109391.224749</v>
+        <v>2438680544.022192</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1197233582311586</v>
+        <v>0.1268193208341351</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04715229288844541</v>
+        <v>0.04610673837959686</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3089599269.34026</v>
+        <v>3962144668.745049</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08710413628222716</v>
+        <v>0.09478243195530764</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04451746625530277</v>
+        <v>0.04118081918922811</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2038872260.212277</v>
+        <v>2774750933.447819</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1252899364624494</v>
+        <v>0.1962318883153455</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01887135034360358</v>
+        <v>0.02010917038791963</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2321810683.856825</v>
+        <v>1651070614.946547</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06345948734308741</v>
+        <v>0.08250259835243204</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02678293724270171</v>
+        <v>0.02394799257560566</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1847883818.974918</v>
+        <v>1548797862.744356</v>
       </c>
       <c r="F45" t="n">
-        <v>0.195185002813584</v>
+        <v>0.1416998828193429</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04423041844774907</v>
+        <v>0.04263699539841512</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3963819133.305145</v>
+        <v>5099481693.05733</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1140704836378962</v>
+        <v>0.1557920675473701</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04361866224742596</v>
+        <v>0.05770765477407708</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3572720467.931128</v>
+        <v>4877526230.214817</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1999812792759063</v>
+        <v>0.1557961539682509</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05593193526150626</v>
+        <v>0.04958965575083533</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3859809077.170756</v>
+        <v>4135777905.164958</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08962382192791822</v>
+        <v>0.1028987739760757</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03605656590243787</v>
+        <v>0.02999510497603251</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1740505507.852546</v>
+        <v>1369349070.977617</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1697766212527809</v>
+        <v>0.1598422184841854</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04017584504514071</v>
+        <v>0.03381083147112328</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2896703751.3478</v>
+        <v>3689931472.129743</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1556593812986228</v>
+        <v>0.1715634051320149</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04139144145002435</v>
+        <v>0.03728850583882238</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1363173826.945621</v>
+        <v>1155294970.382891</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1484968902876048</v>
+        <v>0.1285628332337536</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03635701070063414</v>
+        <v>0.04111417952713783</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3823953218.616446</v>
+        <v>4395608345.31156</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1078095984951656</v>
+        <v>0.1077038976172303</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05292123328283323</v>
+        <v>0.05970640125046486</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3552395786.979412</v>
+        <v>2882713619.056385</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1973551833065372</v>
+        <v>0.1266541720616316</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03538579605304639</v>
+        <v>0.02890619344981351</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3432773647.081746</v>
+        <v>4629423894.855187</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1028511356038342</v>
+        <v>0.1477350339253557</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04536033738062532</v>
+        <v>0.03384364125196111</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4550234665.074617</v>
+        <v>3769387789.840502</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1672332011739558</v>
+        <v>0.1737944496667395</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02345771580241324</v>
+        <v>0.02879137091052038</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1377318431.984452</v>
+        <v>1666866797.139305</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1018103065672921</v>
+        <v>0.1499918045576118</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04593043064902701</v>
+        <v>0.05658883464354069</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3028409853.560054</v>
+        <v>4469636059.370454</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1303255265371345</v>
+        <v>0.1561756484953791</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01812883948917753</v>
+        <v>0.02738019120785895</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1385672363.305631</v>
+        <v>1645824792.195446</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1385912380647411</v>
+        <v>0.1489166180213867</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02435508591187204</v>
+        <v>0.02895976743565786</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3289668703.80517</v>
+        <v>4385276798.630467</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09771666477206339</v>
+        <v>0.1291452681114199</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03957959642325631</v>
+        <v>0.0304125876336464</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3119137734.207509</v>
+        <v>2809241818.388023</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1603799849718955</v>
+        <v>0.1310760255879596</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02957563173975878</v>
+        <v>0.02347322295538875</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2699518191.521516</v>
+        <v>2721693800.948676</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1179091142729253</v>
+        <v>0.1273042508968126</v>
       </c>
       <c r="G61" t="n">
-        <v>0.032515619902188</v>
+        <v>0.02395228813964647</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2047259244.172507</v>
+        <v>1492271196.59355</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1458706851410176</v>
+        <v>0.1559409108325658</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03413486591092133</v>
+        <v>0.03739201852596743</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5608321683.579398</v>
+        <v>4211694698.858277</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07596214395558387</v>
+        <v>0.08542462955973865</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02931490057172532</v>
+        <v>0.04696746187775114</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4169642135.169504</v>
+        <v>3654631953.676248</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1346881598443679</v>
+        <v>0.1309611529000139</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03039416394135123</v>
+        <v>0.02637157550892606</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5983151693.926148</v>
+        <v>5872812476.447811</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1595838852389172</v>
+        <v>0.1290243659703364</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01990213011266066</v>
+        <v>0.02692253646444584</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3764337598.810073</v>
+        <v>5196586282.206835</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1052434224544624</v>
+        <v>0.1376072694851292</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04452542358362023</v>
+        <v>0.03365003325541046</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3091122525.898954</v>
+        <v>2957703236.144723</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07233441531486839</v>
+        <v>0.074007446740755</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03524127862201781</v>
+        <v>0.03824230281285771</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5773185425.349003</v>
+        <v>5215800405.763056</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1059797383891909</v>
+        <v>0.1117427514906188</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04139364230376055</v>
+        <v>0.03781968854627529</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2316296152.268679</v>
+        <v>1519010919.585693</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1774150044856506</v>
+        <v>0.1492750193759418</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04532871982434142</v>
+        <v>0.05628132678899561</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2440631811.38696</v>
+        <v>2358162026.486425</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08310652999047137</v>
+        <v>0.07046633134867954</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03552682387252019</v>
+        <v>0.04669154528734785</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4302571642.427279</v>
+        <v>4422750729.175394</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1220360947737793</v>
+        <v>0.1351767899403477</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02410140110503153</v>
+        <v>0.03181597249756397</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2177804777.519081</v>
+        <v>1935241977.961908</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08188863111790644</v>
+        <v>0.1066162215995731</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0427430084302244</v>
+        <v>0.04016154346043142</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3264419704.83818</v>
+        <v>3285742176.117946</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08972381240277534</v>
+        <v>0.1073227963780232</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04839675343374743</v>
+        <v>0.05236053524018162</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3789921271.483695</v>
+        <v>3972884743.659386</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1579909412265282</v>
+        <v>0.1730945554542698</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02224299479271477</v>
+        <v>0.0263903136982456</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2207875212.982254</v>
+        <v>1815873894.388436</v>
       </c>
       <c r="F75" t="n">
-        <v>0.155838484894765</v>
+        <v>0.1572306704548611</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0371545347406262</v>
+        <v>0.02875834848207094</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3418948440.639551</v>
+        <v>3582101948.182961</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1168812387284214</v>
+        <v>0.07608505728910171</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02797718767743435</v>
+        <v>0.03331804967726937</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1701203893.472326</v>
+        <v>2030776544.298464</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1444792454406043</v>
+        <v>0.1682946420310257</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02337851721649525</v>
+        <v>0.02003743289948101</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3899194131.875516</v>
+        <v>3823405948.34365</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1215670508567773</v>
+        <v>0.09542959542342215</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05173410380029662</v>
+        <v>0.04490161839016057</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1503265879.167736</v>
+        <v>1393277036.618908</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1493276858989795</v>
+        <v>0.1093489400622919</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03853782890445814</v>
+        <v>0.03072123066818271</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4061678719.601401</v>
+        <v>4011938719.082857</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09958053109471936</v>
+        <v>0.1048923354400161</v>
       </c>
       <c r="G80" t="n">
-        <v>0.029608201731044</v>
+        <v>0.0286352189614784</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5071121193.928207</v>
+        <v>3833454691.137545</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1105808325245125</v>
+        <v>0.1115906101186303</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02741255229133096</v>
+        <v>0.02300392271811463</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5686140710.72186</v>
+        <v>3578375641.962786</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1535811152265138</v>
+        <v>0.1982445856472426</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0282395784578806</v>
+        <v>0.01810026952471873</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2395190152.144227</v>
+        <v>1570553242.826587</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1246421857560404</v>
+        <v>0.1317771764210493</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03498094420313523</v>
+        <v>0.03018581147854261</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2067992813.461633</v>
+        <v>1921362978.339865</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09324721150193341</v>
+        <v>0.1147869087962883</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03169651199495278</v>
+        <v>0.0505492921951697</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2762261916.426826</v>
+        <v>2255824852.730125</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1662759612678789</v>
+        <v>0.1628351232459629</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04103134560205623</v>
+        <v>0.04657041352010552</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2777953921.067934</v>
+        <v>1823368809.397193</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1562617234855851</v>
+        <v>0.1335301367864236</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01721648435463199</v>
+        <v>0.01957374999042081</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>981955702.403915</v>
+        <v>946392299.2479974</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1196833922991346</v>
+        <v>0.114906784822001</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0281150707337808</v>
+        <v>0.02689294891798462</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3507571676.278685</v>
+        <v>3512078800.927596</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1456056957917717</v>
+        <v>0.1400417115642759</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02915558654320672</v>
+        <v>0.03852079304857021</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2729137167.695142</v>
+        <v>2535602773.789832</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1076776629212779</v>
+        <v>0.1303816052770612</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04052035448785712</v>
+        <v>0.02876115180497286</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2017274225.16439</v>
+        <v>1708567100.283627</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1376798844380487</v>
+        <v>0.1113860664157827</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03779183750204865</v>
+        <v>0.05082659836773084</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1414303799.795562</v>
+        <v>1678878998.725798</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1787172489101895</v>
+        <v>0.1656829080181279</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0374569908786653</v>
+        <v>0.04235763569110328</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1836424759.493595</v>
+        <v>2330017886.494896</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08233924605289532</v>
+        <v>0.1069166293458197</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03120234363297941</v>
+        <v>0.03325083855658831</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3385492688.097282</v>
+        <v>4262011860.986537</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09217726446789158</v>
+        <v>0.0947703842281825</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04692897531935967</v>
+        <v>0.05491273007746143</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2411149831.784717</v>
+        <v>2468489543.087538</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1387523402061984</v>
+        <v>0.1179075844297056</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0324351743312404</v>
+        <v>0.03941689635009816</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2588481513.681742</v>
+        <v>3273390289.620478</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09893882970933082</v>
+        <v>0.1309765282529524</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04292975047539513</v>
+        <v>0.0435791703949292</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2127530326.739918</v>
+        <v>1614435941.484721</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1375258667692439</v>
+        <v>0.1396320080212198</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04524127337400431</v>
+        <v>0.03433609051915785</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4550755925.71469</v>
+        <v>3337598113.061695</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1265832215323207</v>
+        <v>0.1520373493289443</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02051727529671032</v>
+        <v>0.0290922598953858</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3843547033.248202</v>
+        <v>3576043196.678846</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1177427110523508</v>
+        <v>0.1014371713795917</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02075283089675215</v>
+        <v>0.02045656625430369</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3281885815.665919</v>
+        <v>2874372779.546204</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09535872488379156</v>
+        <v>0.1459407635045299</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02512178704262178</v>
+        <v>0.02779201622210528</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4441706649.59961</v>
+        <v>3682367765.445601</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1726081068661066</v>
+        <v>0.133957395594358</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02531728664905884</v>
+        <v>0.0229479775337159</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3385375597.787523</v>
+        <v>2464403470.677842</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1452432784747002</v>
+        <v>0.1401533295481167</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05763895359010462</v>
+        <v>0.04987294673141932</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_367.xlsx
+++ b/output/fit_clients/fit_round_367.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2344046163.210058</v>
+        <v>2220799446.989398</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1109370946712122</v>
+        <v>0.08968478514573119</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03421652448501294</v>
+        <v>0.03105712618171567</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1785882399.11165</v>
+        <v>2319665587.96555</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1548648284956346</v>
+        <v>0.1301699979427918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03965087644400035</v>
+        <v>0.04663092590617247</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3498361085.01874</v>
+        <v>3509873073.586283</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1179159286279844</v>
+        <v>0.1580789409245333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0373750840217897</v>
+        <v>0.0352234106338591</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>189</v>
+      </c>
+      <c r="J4" t="n">
+        <v>365</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3466201853.642854</v>
+        <v>3592822979.723336</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08130637850632187</v>
+        <v>0.06750666495741155</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04489396925722047</v>
+        <v>0.0472026051864967</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>148</v>
+      </c>
+      <c r="J5" t="n">
+        <v>367</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2027154493.321612</v>
+        <v>1794956090.144661</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1086419421142725</v>
+        <v>0.1012783626478255</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03622324080615225</v>
+        <v>0.04575594769263981</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2907617888.191331</v>
+        <v>2924317738.56672</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09962597345303996</v>
+        <v>0.06741695064933352</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03448561151273889</v>
+        <v>0.04386730533189941</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3268222503.864214</v>
+        <v>3759085385.346131</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2148710914555336</v>
+        <v>0.1764938563397825</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02565128781326526</v>
+        <v>0.02590360874931862</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>96</v>
+      </c>
+      <c r="J8" t="n">
+        <v>367</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2263234017.146663</v>
+        <v>1903754700.163222</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1283462745834428</v>
+        <v>0.1701307285169453</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03250399408341973</v>
+        <v>0.03232332615765131</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4262664530.276011</v>
+        <v>4090170340.581441</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1868300288521066</v>
+        <v>0.1675908476060172</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04397003961625343</v>
+        <v>0.04588613584436243</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>305</v>
+      </c>
+      <c r="J10" t="n">
+        <v>366</v>
+      </c>
+      <c r="K10" t="n">
+        <v>58.16928606121333</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3939619492.60256</v>
+        <v>2913926413.219064</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1529539090531428</v>
+        <v>0.1456535988101798</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04172508457437584</v>
+        <v>0.03177567160069367</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>153</v>
+      </c>
+      <c r="J11" t="n">
+        <v>364</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2558451633.859356</v>
+        <v>2328677167.128273</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1773598470776003</v>
+        <v>0.171100926550992</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03657496790842297</v>
+        <v>0.03970142861290338</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +888,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4260875957.260421</v>
+        <v>3236481298.431536</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07728569142225948</v>
+        <v>0.07318267035303211</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03028879990146579</v>
+        <v>0.02530523689362446</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>191</v>
+      </c>
+      <c r="J13" t="n">
+        <v>366</v>
+      </c>
+      <c r="K13" t="n">
+        <v>45.46346965440008</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2990764962.913013</v>
+        <v>3288898560.40909</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1555317296562956</v>
+        <v>0.1235401195574587</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03965480328757921</v>
+        <v>0.04133896625917886</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>359</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1729931879.852177</v>
+        <v>1541103232.992403</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06842687098977346</v>
+        <v>0.09731852785587795</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03456655666096939</v>
+        <v>0.03996916042355621</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2234307960.7077</v>
+        <v>2735232175.062145</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09523559240649912</v>
+        <v>0.111684367636992</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0396927097420592</v>
+        <v>0.03476026348446511</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5114743470.313579</v>
+        <v>3568792027.77227</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1273992274548023</v>
+        <v>0.1577536411328392</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0383581926449296</v>
+        <v>0.05062234580928284</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>173</v>
+      </c>
+      <c r="J17" t="n">
+        <v>365</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1059,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3326537031.504645</v>
+        <v>2458366517.476503</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1594697423216973</v>
+        <v>0.1810074438312442</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0244335872458557</v>
+        <v>0.02105517787245713</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>90</v>
+      </c>
+      <c r="J18" t="n">
+        <v>366</v>
+      </c>
+      <c r="K18" t="n">
+        <v>35.3651524421807</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1225250525.445506</v>
+        <v>1239719593.331565</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1893068262174926</v>
+        <v>0.1550766734794508</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01906041465888865</v>
+        <v>0.01794614377201874</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1794022507.656417</v>
+        <v>2299748758.4495</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1462377196633643</v>
+        <v>0.1464102776143886</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02867719748504502</v>
+        <v>0.0248076109557263</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2634195175.918</v>
+        <v>2514576122.598398</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06745365520964405</v>
+        <v>0.06319020963470601</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03652830515256567</v>
+        <v>0.04071889729088941</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3551895868.379415</v>
+        <v>2524591565.623965</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1408134913912757</v>
+        <v>0.1043706710290001</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05020319283148114</v>
+        <v>0.04949004827145081</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>102</v>
+      </c>
+      <c r="J22" t="n">
+        <v>366</v>
+      </c>
+      <c r="K22" t="n">
+        <v>33.08562852953053</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1079987790.511329</v>
+        <v>1111031197.051531</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1725610973925001</v>
+        <v>0.1343803667652917</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04324531831565036</v>
+        <v>0.04485656278495749</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2798488613.269957</v>
+        <v>2894442051.082559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09467434182118228</v>
+        <v>0.09328396563297575</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0375700203057884</v>
+        <v>0.0337752656544095</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>112</v>
+      </c>
+      <c r="J24" t="n">
+        <v>363</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>899361993.3073173</v>
+        <v>1444366700.35565</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08125032752539348</v>
+        <v>0.09646266543496679</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01881097471113405</v>
+        <v>0.02049486861796563</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>898003403.3304659</v>
+        <v>937964090.3201853</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1224490335400596</v>
+        <v>0.1142483716423409</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0283764115814798</v>
+        <v>0.03299506780130365</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4042855777.064317</v>
+        <v>3683356193.471137</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1317544907924055</v>
+        <v>0.1478731234635384</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02171393615272047</v>
+        <v>0.018694979379236</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>153</v>
+      </c>
+      <c r="J27" t="n">
+        <v>367</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2746973465.669672</v>
+        <v>3526896002.698802</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1299152597841954</v>
+        <v>0.1004060876579759</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04032133587782515</v>
+        <v>0.03777108250313007</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>85</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1448,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5932487704.108374</v>
+        <v>3968864361.410091</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1234345225428196</v>
+        <v>0.1137502379812768</v>
       </c>
       <c r="G29" t="n">
-        <v>0.033063326802131</v>
+        <v>0.03809602059468833</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>321</v>
+      </c>
+      <c r="J29" t="n">
+        <v>367</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1893078572.781248</v>
+        <v>1832285625.601243</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09624135067928649</v>
+        <v>0.103320411618351</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03282307545018705</v>
+        <v>0.03688443094251583</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1078893426.736788</v>
+        <v>1479771995.559459</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08873627722283263</v>
+        <v>0.09648701776993719</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04602282837107243</v>
+        <v>0.03747402686157573</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1559,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1361484869.037437</v>
+        <v>1333456062.495309</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1109216628840624</v>
+        <v>0.07862763738800004</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02805431657239057</v>
+        <v>0.03017700763757738</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2106027865.306655</v>
+        <v>2500458011.988577</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1529028901124685</v>
+        <v>0.1544500786925171</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04654569572211373</v>
+        <v>0.0426403825852434</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1161512017.82156</v>
+        <v>1145444448.907222</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1092743171585703</v>
+        <v>0.09895875068537055</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02280795959702496</v>
+        <v>0.02745493465765151</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1113387699.513653</v>
+        <v>1125474379.61723</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0737135353708715</v>
+        <v>0.07382424587331281</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0356764670351955</v>
+        <v>0.04250167574795938</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1699,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2669820918.986453</v>
+        <v>2559205472.139932</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1621052491201416</v>
+        <v>0.1677113784207348</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02252843267525423</v>
+        <v>0.01997877012976103</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2085037882.565035</v>
+        <v>2085633687.454151</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07642928553871377</v>
+        <v>0.1081417543591944</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03001768740647459</v>
+        <v>0.03052495841320666</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2016660310.499975</v>
+        <v>1987659594.712652</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1216980881557925</v>
+        <v>0.1178471322096613</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02469284984616607</v>
+        <v>0.03649977627891702</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1915091607.050702</v>
+        <v>2026928065.021141</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1684711507570701</v>
+        <v>0.1460733338218631</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02960460499292384</v>
+        <v>0.0313076070396137</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1839,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1328835714.290363</v>
+        <v>1474496767.252627</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1213702916976691</v>
+        <v>0.1265067584955296</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05227998733080964</v>
+        <v>0.05610003525351736</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2438680544.022192</v>
+        <v>2327829875.061143</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1268193208341351</v>
+        <v>0.1432729351769594</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04610673837959686</v>
+        <v>0.04006636928771141</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3962144668.745049</v>
+        <v>3480279335.237925</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09478243195530764</v>
+        <v>0.1263744763467141</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04118081918922811</v>
+        <v>0.03901830567401023</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>163</v>
+      </c>
+      <c r="J42" t="n">
+        <v>367</v>
+      </c>
+      <c r="K42" t="n">
+        <v>59.0934830247925</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2774750933.447819</v>
+        <v>2889562697.421164</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1962318883153455</v>
+        <v>0.1652233425537879</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02010917038791963</v>
+        <v>0.01828200160104055</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1981,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1651070614.946547</v>
+        <v>1940755172.231575</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08250259835243204</v>
+        <v>0.09668528813699315</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02394799257560566</v>
+        <v>0.02740444724235751</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1548797862.744356</v>
+        <v>1631229722.718878</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1416998828193429</v>
+        <v>0.1717629014050434</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04263699539841512</v>
+        <v>0.04219030917112701</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5099481693.05733</v>
+        <v>3653325978.00058</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1557920675473701</v>
+        <v>0.1492506637261708</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05770765477407708</v>
+        <v>0.03972555283595155</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>220</v>
+      </c>
+      <c r="J46" t="n">
+        <v>366</v>
+      </c>
+      <c r="K46" t="n">
+        <v>57.80047367690344</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4877526230.214817</v>
+        <v>3605579287.422031</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1557961539682509</v>
+        <v>0.195754776121638</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04958965575083533</v>
+        <v>0.04628233524337609</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>164</v>
+      </c>
+      <c r="J47" t="n">
+        <v>366</v>
+      </c>
+      <c r="K47" t="n">
+        <v>53.95712954950249</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4135777905.164958</v>
+        <v>3878789443.514962</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1028987739760757</v>
+        <v>0.1005898795176163</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02999510497603251</v>
+        <v>0.03906427428541457</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>188</v>
+      </c>
+      <c r="J48" t="n">
+        <v>367</v>
+      </c>
+      <c r="K48" t="n">
+        <v>59.67033007473663</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1369349070.977617</v>
+        <v>1795542550.643554</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1598422184841854</v>
+        <v>0.1503427242143198</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03381083147112328</v>
+        <v>0.0362455537973309</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2197,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3689931472.129743</v>
+        <v>2578813007.840102</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1715634051320149</v>
+        <v>0.1314465132364496</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03728850583882238</v>
+        <v>0.04328619733666928</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>123</v>
+      </c>
+      <c r="J50" t="n">
+        <v>366</v>
+      </c>
+      <c r="K50" t="n">
+        <v>33.38340749905195</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1155294970.382891</v>
+        <v>1394039477.097495</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1285628332337536</v>
+        <v>0.1894210956638314</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04111417952713783</v>
+        <v>0.03634345089179747</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4395608345.31156</v>
+        <v>4370413633.576126</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1077038976172303</v>
+        <v>0.1095272372732514</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05970640125046486</v>
+        <v>0.05219030845532578</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>216</v>
+      </c>
+      <c r="J52" t="n">
+        <v>367</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2882713619.056385</v>
+        <v>3035623435.050807</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1266541720616316</v>
+        <v>0.1408622013666029</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02890619344981351</v>
+        <v>0.0225137414799111</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>357</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4629423894.855187</v>
+        <v>4409735399.99592</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1477350339253557</v>
+        <v>0.1519061514691449</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03384364125196111</v>
+        <v>0.05145967191294695</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>195</v>
+      </c>
+      <c r="J54" t="n">
+        <v>366</v>
+      </c>
+      <c r="K54" t="n">
+        <v>56.71380651944886</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3769387789.840502</v>
+        <v>3991014042.360104</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1737944496667395</v>
+        <v>0.1661330221783123</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02879137091052038</v>
+        <v>0.02100736815985866</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>175</v>
+      </c>
+      <c r="J55" t="n">
+        <v>367</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1666866797.139305</v>
+        <v>1257737785.282892</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1499918045576118</v>
+        <v>0.1536979380014291</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05658883464354069</v>
+        <v>0.04226276397024987</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4469636059.370454</v>
+        <v>4532036010.782926</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1561756484953791</v>
+        <v>0.1789884044592345</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02738019120785895</v>
+        <v>0.01754073442810342</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>152</v>
+      </c>
+      <c r="J57" t="n">
+        <v>367</v>
+      </c>
+      <c r="K57" t="n">
+        <v>63.58713243283103</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1645824792.195446</v>
+        <v>1178186536.38349</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1489166180213867</v>
+        <v>0.1666747303201203</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02895976743565786</v>
+        <v>0.03176838348791607</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4385276798.630467</v>
+        <v>3964724114.041171</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1291452681114199</v>
+        <v>0.103887267180744</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0304125876336464</v>
+        <v>0.04422219487562157</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>178</v>
+      </c>
+      <c r="J59" t="n">
+        <v>367</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2809241818.388023</v>
+        <v>3604462680.890614</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1310760255879596</v>
+        <v>0.1527608342982037</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02347322295538875</v>
+        <v>0.02256048028624488</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>65</v>
+      </c>
+      <c r="J60" t="n">
+        <v>367</v>
+      </c>
+      <c r="K60" t="n">
+        <v>82.88034914251885</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2721693800.948676</v>
+        <v>2620340540.160326</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1273042508968126</v>
+        <v>0.1394806663637187</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02395228813964647</v>
+        <v>0.03074936205020909</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1492271196.59355</v>
+        <v>1697860236.999339</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1559409108325658</v>
+        <v>0.1564613480565178</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03739201852596743</v>
+        <v>0.04807885105876924</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4211694698.858277</v>
+        <v>5465309172.764104</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08542462955973865</v>
+        <v>0.07849861391726853</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04696746187775114</v>
+        <v>0.03934229894537365</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>181</v>
+      </c>
+      <c r="J63" t="n">
+        <v>366</v>
+      </c>
+      <c r="K63" t="n">
+        <v>56.21661760739951</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3654631953.676248</v>
+        <v>4200880904.894677</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1309611529000139</v>
+        <v>0.128443547395327</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02637157550892606</v>
+        <v>0.02556420563373945</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>182</v>
+      </c>
+      <c r="J64" t="n">
+        <v>367</v>
+      </c>
+      <c r="K64" t="n">
+        <v>58.419081738613</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5872812476.447811</v>
+        <v>4013021204.922778</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1290243659703364</v>
+        <v>0.1381161209735788</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02692253646444584</v>
+        <v>0.02527400241501601</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>278</v>
+      </c>
+      <c r="J65" t="n">
+        <v>367</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5196586282.206835</v>
+        <v>4764349856.344749</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1376072694851292</v>
+        <v>0.09888906362243804</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03365003325541046</v>
+        <v>0.03484796857825542</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>181</v>
+      </c>
+      <c r="J66" t="n">
+        <v>367</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2957703236.144723</v>
+        <v>2191302304.702013</v>
       </c>
       <c r="F67" t="n">
-        <v>0.074007446740755</v>
+        <v>0.08384968264944313</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03824230281285771</v>
+        <v>0.05154031821750494</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5215800405.763056</v>
+        <v>3784169393.578542</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1117427514906188</v>
+        <v>0.1552996693234261</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03781968854627529</v>
+        <v>0.04751405821527335</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>199</v>
+      </c>
+      <c r="J68" t="n">
+        <v>367</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1519010919.585693</v>
+        <v>2309713986.303287</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1492750193759418</v>
+        <v>0.1112868981390887</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05628132678899561</v>
+        <v>0.0431448506280597</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2358162026.486425</v>
+        <v>3197925639.365527</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07046633134867954</v>
+        <v>0.06374807737999011</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04669154528734785</v>
+        <v>0.03181452736366007</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2944,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4422750729.175394</v>
+        <v>4911928210.853413</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1351767899403477</v>
+        <v>0.1342358096083971</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03181597249756397</v>
+        <v>0.02180779483943027</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>265</v>
+      </c>
+      <c r="J71" t="n">
+        <v>366</v>
+      </c>
+      <c r="K71" t="n">
+        <v>56.28817092353977</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1935241977.961908</v>
+        <v>1655076210.225578</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1066162215995731</v>
+        <v>0.07165333726856866</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04016154346043142</v>
+        <v>0.04332125212692967</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3285742176.117946</v>
+        <v>2404701230.883287</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1073227963780232</v>
+        <v>0.08907495047591757</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05236053524018162</v>
+        <v>0.04046754792812828</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+      <c r="J73" t="n">
+        <v>346</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3972884743.659386</v>
+        <v>2895321454.194031</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1730945554542698</v>
+        <v>0.1717098791372035</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0263903136982456</v>
+        <v>0.0339897068473617</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>105</v>
+      </c>
+      <c r="J74" t="n">
+        <v>365</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1815873894.388436</v>
+        <v>2011777794.137318</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1572306704548611</v>
+        <v>0.160819005374342</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02875834848207094</v>
+        <v>0.03102165522048565</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3582101948.182961</v>
+        <v>3266598669.58584</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07608505728910171</v>
+        <v>0.1131426206500054</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03331804967726937</v>
+        <v>0.02231634330831475</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>174</v>
+      </c>
+      <c r="J76" t="n">
+        <v>366</v>
+      </c>
+      <c r="K76" t="n">
+        <v>46.42798452514159</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2030776544.298464</v>
+        <v>1494109210.230798</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1682946420310257</v>
+        <v>0.1635808974333607</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02003743289948101</v>
+        <v>0.02254265797318855</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3823405948.34365</v>
+        <v>3726125334.925879</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09542959542342215</v>
+        <v>0.1223301635728579</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04490161839016057</v>
+        <v>0.04905273647970257</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>183</v>
+      </c>
+      <c r="J78" t="n">
+        <v>367</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1393277036.618908</v>
+        <v>1183141425.376769</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1093489400622919</v>
+        <v>0.1650087482555283</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03072123066818271</v>
+        <v>0.03393826440398144</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4011938719.082857</v>
+        <v>4718131477.624085</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1048923354400161</v>
+        <v>0.08855938863447374</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0286352189614784</v>
+        <v>0.03289195642794154</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>179</v>
+      </c>
+      <c r="J80" t="n">
+        <v>366</v>
+      </c>
+      <c r="K80" t="n">
+        <v>46.01797307145388</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3833454691.137545</v>
+        <v>4113996987.923855</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1115906101186303</v>
+        <v>0.1171021534445222</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02300392271811463</v>
+        <v>0.03053723814209316</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>170</v>
+      </c>
+      <c r="J81" t="n">
+        <v>366</v>
+      </c>
+      <c r="K81" t="n">
+        <v>54.58365537835224</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3578375641.962786</v>
+        <v>3690436839.354866</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1982445856472426</v>
+        <v>0.1400091102018433</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01810026952471873</v>
+        <v>0.02624488900056081</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>256</v>
+      </c>
+      <c r="J82" t="n">
+        <v>367</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1570553242.826587</v>
+        <v>2440080080.104517</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1317771764210493</v>
+        <v>0.1382799087895599</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03018581147854261</v>
+        <v>0.02856408532270407</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1921362978.339865</v>
+        <v>2077893565.424758</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1147869087962883</v>
+        <v>0.09455697198663618</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0505492921951697</v>
+        <v>0.03880667646183285</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3442,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2255824852.730125</v>
+        <v>2752588600.72479</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1628351232459629</v>
+        <v>0.143958246294075</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04657041352010552</v>
+        <v>0.04266544618733669</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>47</v>
+      </c>
+      <c r="J85" t="n">
+        <v>366</v>
+      </c>
+      <c r="K85" t="n">
+        <v>56.55819111506293</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1823368809.397193</v>
+        <v>2765228237.674412</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1335301367864236</v>
+        <v>0.1577769379154908</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01957374999042081</v>
+        <v>0.02059643511545365</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>946392299.2479974</v>
+        <v>1297634141.719361</v>
       </c>
       <c r="F87" t="n">
-        <v>0.114906784822001</v>
+        <v>0.1790780641337656</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02689294891798462</v>
+        <v>0.02813552848577957</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3512078800.927596</v>
+        <v>2707829945.15948</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1400417115642759</v>
+        <v>0.1233268758163806</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03852079304857021</v>
+        <v>0.02967853936836545</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>331</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2535602773.789832</v>
+        <v>3054594492.71442</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1303816052770612</v>
+        <v>0.1220019969731181</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02876115180497286</v>
+        <v>0.03835085358636672</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1708567100.283627</v>
+        <v>1628030294.671736</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1113860664157827</v>
+        <v>0.08944719346118238</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05082659836773084</v>
+        <v>0.04093346874833698</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1678878998.725798</v>
+        <v>2044062379.870098</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1656829080181279</v>
+        <v>0.1949834669790657</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04235763569110328</v>
+        <v>0.0469787947519387</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2330017886.494896</v>
+        <v>2146691765.636605</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1069166293458197</v>
+        <v>0.1080032854585185</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03325083855658831</v>
+        <v>0.03711561287402766</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4262011860.986537</v>
+        <v>4802441400.110142</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0947703842281825</v>
+        <v>0.1151059574334228</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05491273007746143</v>
+        <v>0.04604945805426318</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>170</v>
+      </c>
+      <c r="J93" t="n">
+        <v>367</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2468489543.087538</v>
+        <v>2251785833.83875</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1179075844297056</v>
+        <v>0.149093761849398</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03941689635009816</v>
+        <v>0.04096999977683534</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3273390289.620478</v>
+        <v>3202472668.588399</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1309765282529524</v>
+        <v>0.109124419223322</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0435791703949292</v>
+        <v>0.0381998589935388</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1614435941.484721</v>
+        <v>1620943098.634537</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1396320080212198</v>
+        <v>0.1216586025592356</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03433609051915785</v>
+        <v>0.04047370627025925</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3337598113.061695</v>
+        <v>3510939419.132322</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1520373493289443</v>
+        <v>0.1203079640378917</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0290922598953858</v>
+        <v>0.02523875732856773</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>190</v>
+      </c>
+      <c r="J97" t="n">
+        <v>366</v>
+      </c>
+      <c r="K97" t="n">
+        <v>55.16003027277072</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3576043196.678846</v>
+        <v>3873465352.670538</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1014371713795917</v>
+        <v>0.1077322556423002</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02045656625430369</v>
+        <v>0.02504988615317528</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>91</v>
+      </c>
+      <c r="J98" t="n">
+        <v>367</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2874372779.546204</v>
+        <v>2477726490.257631</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1459407635045299</v>
+        <v>0.1185883006626396</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02779201622210528</v>
+        <v>0.02975936322978338</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3682367765.445601</v>
+        <v>4492666205.038139</v>
       </c>
       <c r="F100" t="n">
-        <v>0.133957395594358</v>
+        <v>0.1484764988420627</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0229479775337159</v>
+        <v>0.0202319019439838</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>166</v>
+      </c>
+      <c r="J100" t="n">
+        <v>367</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2464403470.677842</v>
+        <v>2802848930.687222</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1401533295481167</v>
+        <v>0.1616160076190115</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04987294673141932</v>
+        <v>0.04270292504064174</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>33</v>
+      </c>
+      <c r="J101" t="n">
+        <v>362</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
